--- a/biology/Botanique/Tod_Falor_Stuessy/Tod_Falor_Stuessy.xlsx
+++ b/biology/Botanique/Tod_Falor_Stuessy/Tod_Falor_Stuessy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tod Falor Stuessy (né le 18 novembre 1943) est un botaniste américain travaillant au Botanical Research Institute of Texas et est professeur à l'université du Texas à Austin, après y avoir obtenu son Ph.D.. Il a précédemment travaillé comme taxonomiste au Jardin botanique tropical Fairchild, près de Miami.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,15 +553,54 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Éponymie
-Genre
-(Asteraceae) Stuessya B.L.Turner &amp; F.G.Davies[1]
+          <t>Éponymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Genre
+(Asteraceae) Stuessya B.L.Turner &amp; F.G.Davies
 Espèces
-(Asteraceae) Fulcaldea stuessyi Roque &amp; V.A.Funk[2]
-(Crassulaceae) Aeonium stuessyi H.Y.Liu[3]
-(Cyperaceae) Carex stuessyi G.A.Wheeler[4]
-Abréviation d'auteur
-L'abréviation « Stuessy » est employée pour indiquer Tod Falor Stuessy comme auteur pour la description et la classification scientifique des végétaux.
+(Asteraceae) Fulcaldea stuessyi Roque &amp; V.A.Funk
+(Crassulaceae) Aeonium stuessyi H.Y.Liu
+(Cyperaceae) Carex stuessyi G.A.Wheeler</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Tod_Falor_Stuessy</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tod_Falor_Stuessy</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Honneurs</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Abréviation d'auteur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'abréviation « Stuessy » est employée pour indiquer Tod Falor Stuessy comme auteur pour la description et la classification scientifique des végétaux.
 </t>
         </is>
       </c>
